--- a/data/tower_count/tower_count_2008.xlsx
+++ b/data/tower_count/tower_count_2008.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ejgna\Documents\project-eleanor-and-wriley\data\tower_count\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB9A5C1D-3F80-433A-8410-13B8EACE5FC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="45" windowWidth="22995" windowHeight="10035"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="26">
   <si>
     <t>Date</t>
   </si>
@@ -39,9 +45,6 @@
     <t>other</t>
   </si>
   <si>
-    <t>FOG</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
@@ -63,9 +66,6 @@
     <t>3 ATPU, 3 RAZO, 2 DCCO</t>
   </si>
   <si>
-    <t xml:space="preserve">6/17 - 6/24 </t>
-  </si>
-  <si>
     <t>1 crow</t>
   </si>
   <si>
@@ -73,9 +73,6 @@
   </si>
   <si>
     <t>1 pink gull</t>
-  </si>
-  <si>
-    <t>6/29-6/30</t>
   </si>
   <si>
     <t>2 ATPU, 1 RAZO</t>
@@ -108,7 +105,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -150,6 +147,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -198,7 +198,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -231,9 +231,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -266,6 +283,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -441,18 +475,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -480,7 +514,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>41437</v>
+        <v>39611</v>
       </c>
       <c r="B4">
         <v>160</v>
@@ -498,12 +532,12 @@
         <v>6</v>
       </c>
       <c r="G4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>41438</v>
+        <v>39612</v>
       </c>
       <c r="B5">
         <v>150</v>
@@ -521,12 +555,12 @@
         <v>6</v>
       </c>
       <c r="G5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>41439</v>
+        <v>39613</v>
       </c>
       <c r="B6">
         <v>159</v>
@@ -544,12 +578,12 @@
         <v>19</v>
       </c>
       <c r="G6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>41440</v>
+        <v>39614</v>
       </c>
       <c r="B7">
         <v>152</v>
@@ -567,12 +601,12 @@
         <v>15</v>
       </c>
       <c r="G7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>41441</v>
+        <v>39615</v>
       </c>
       <c r="B8">
         <v>155</v>
@@ -590,189 +624,234 @@
         <v>26</v>
       </c>
       <c r="G8" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>39624</v>
+      </c>
+      <c r="B9">
+        <v>154</v>
+      </c>
+      <c r="C9">
+        <v>32</v>
+      </c>
+      <c r="D9">
+        <v>239</v>
+      </c>
+      <c r="E9">
+        <v>105</v>
+      </c>
+      <c r="F9">
+        <v>52</v>
+      </c>
+      <c r="G9" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>41450</v>
+        <v>39625</v>
       </c>
       <c r="B10">
-        <v>154</v>
+        <v>173</v>
       </c>
       <c r="C10">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="D10">
-        <v>239</v>
+        <v>116</v>
       </c>
       <c r="E10">
-        <v>105</v>
+        <v>44</v>
       </c>
       <c r="F10">
-        <v>52</v>
+        <v>6</v>
       </c>
       <c r="G10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>41451</v>
+        <v>39627</v>
       </c>
       <c r="B11">
-        <v>173</v>
+        <v>142</v>
       </c>
       <c r="C11">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="D11">
-        <v>116</v>
+        <v>223</v>
       </c>
       <c r="E11">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="F11">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="G11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>41452</v>
-      </c>
-      <c r="B12" t="s">
-        <v>7</v>
+        <v>39640</v>
+      </c>
+      <c r="B12">
+        <v>269</v>
+      </c>
+      <c r="C12">
+        <v>36</v>
+      </c>
+      <c r="D12">
+        <v>162</v>
+      </c>
+      <c r="E12">
+        <v>51</v>
+      </c>
+      <c r="F12">
+        <v>12</v>
+      </c>
+      <c r="G12" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>41453</v>
+        <v>39641</v>
       </c>
       <c r="B13">
-        <v>142</v>
+        <v>224</v>
       </c>
       <c r="C13">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="D13">
-        <v>223</v>
+        <v>235</v>
       </c>
       <c r="E13">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="F13">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="G13" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" t="s">
+      <c r="A14" s="1">
+        <v>39642</v>
+      </c>
+      <c r="B14">
+        <v>210</v>
+      </c>
+      <c r="C14">
+        <v>34</v>
+      </c>
+      <c r="D14">
+        <v>188</v>
+      </c>
+      <c r="E14">
+        <v>32</v>
+      </c>
+      <c r="F14">
+        <v>10</v>
+      </c>
+      <c r="G14" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>41466</v>
+        <v>39644</v>
       </c>
       <c r="B15">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C15">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D15">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="E15">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="F15">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>41467</v>
+        <v>39646</v>
       </c>
       <c r="B16">
-        <v>224</v>
+        <v>242</v>
       </c>
       <c r="C16">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D16">
-        <v>235</v>
+        <v>146</v>
       </c>
       <c r="E16">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F16">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="G16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>41468</v>
+        <v>39647</v>
       </c>
       <c r="B17">
-        <v>210</v>
+        <v>234</v>
       </c>
       <c r="C17">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D17">
-        <v>188</v>
+        <v>125</v>
       </c>
       <c r="E17">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="F17">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G17" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>41470</v>
+        <v>39648</v>
       </c>
       <c r="B18">
-        <v>268</v>
+        <v>178</v>
       </c>
       <c r="C18">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="D18">
-        <v>180</v>
+        <v>138</v>
       </c>
       <c r="E18">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="F18">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G18" t="s">
         <v>22</v>
@@ -780,22 +859,22 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>41472</v>
+        <v>39651</v>
       </c>
       <c r="B19">
-        <v>242</v>
+        <v>182</v>
       </c>
       <c r="C19">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="D19">
-        <v>146</v>
+        <v>191</v>
       </c>
       <c r="E19">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="F19">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="G19" t="s">
         <v>23</v>
@@ -803,22 +882,22 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>41473</v>
+        <v>39652</v>
       </c>
       <c r="B20">
-        <v>234</v>
+        <v>247</v>
       </c>
       <c r="C20">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="D20">
-        <v>125</v>
+        <v>168</v>
       </c>
       <c r="E20">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="F20">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G20" t="s">
         <v>24</v>
@@ -826,133 +905,64 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>41474</v>
+        <v>39667</v>
       </c>
       <c r="B21">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="C21">
-        <v>28</v>
-      </c>
-      <c r="D21">
-        <v>138</v>
-      </c>
-      <c r="E21">
-        <v>23</v>
-      </c>
-      <c r="F21">
-        <v>13</v>
+        <v>29</v>
+      </c>
+      <c r="D21" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" t="s">
+        <v>7</v>
+      </c>
+      <c r="F21" t="s">
+        <v>7</v>
       </c>
       <c r="G21" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>41477</v>
+        <v>39668</v>
       </c>
       <c r="B22">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="C22">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="D22">
-        <v>191</v>
+        <v>83</v>
       </c>
       <c r="E22">
-        <v>34</v>
-      </c>
-      <c r="F22">
-        <v>0</v>
+        <v>169</v>
+      </c>
+      <c r="F22" t="s">
+        <v>7</v>
       </c>
       <c r="G22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
-        <v>41478</v>
-      </c>
-      <c r="B23">
-        <v>247</v>
-      </c>
-      <c r="C23">
-        <v>26</v>
-      </c>
-      <c r="D23">
-        <v>168</v>
-      </c>
-      <c r="E23">
-        <v>23</v>
-      </c>
-      <c r="F23">
-        <v>0</v>
-      </c>
-      <c r="G23" t="s">
-        <v>27</v>
-      </c>
+      <c r="A23" s="1"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
-        <v>41493</v>
-      </c>
-      <c r="B24">
-        <v>181</v>
-      </c>
-      <c r="C24">
-        <v>29</v>
-      </c>
-      <c r="D24" t="s">
-        <v>8</v>
-      </c>
-      <c r="E24" t="s">
-        <v>8</v>
-      </c>
-      <c r="F24" t="s">
-        <v>8</v>
-      </c>
-      <c r="G24" t="s">
-        <v>8</v>
-      </c>
+      <c r="A24" s="1"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
-        <v>41494</v>
-      </c>
-      <c r="B25">
-        <v>192</v>
-      </c>
-      <c r="C25">
-        <v>19</v>
-      </c>
-      <c r="D25">
-        <v>83</v>
-      </c>
-      <c r="E25">
-        <v>169</v>
-      </c>
-      <c r="F25" t="s">
-        <v>8</v>
-      </c>
-      <c r="G25" t="s">
-        <v>28</v>
-      </c>
+      <c r="A25" s="1"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="1"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="1"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -960,7 +970,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -972,7 +982,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/data/tower_count/tower_count_2008.xlsx
+++ b/data/tower_count/tower_count_2008.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ejgna\Documents\project-eleanor-and-wriley\data\tower_count\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB9A5C1D-3F80-433A-8410-13B8EACE5FC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3122A6A2-AC83-466A-82F3-CA3690752C0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
   <si>
     <t>Date</t>
   </si>
@@ -479,7 +479,7 @@
   <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -913,15 +913,6 @@
       <c r="C21">
         <v>29</v>
       </c>
-      <c r="D21" t="s">
-        <v>7</v>
-      </c>
-      <c r="E21" t="s">
-        <v>7</v>
-      </c>
-      <c r="F21" t="s">
-        <v>7</v>
-      </c>
       <c r="G21" t="s">
         <v>7</v>
       </c>
@@ -941,9 +932,6 @@
       </c>
       <c r="E22">
         <v>169</v>
-      </c>
-      <c r="F22" t="s">
-        <v>7</v>
       </c>
       <c r="G22" t="s">
         <v>25</v>
